--- a/province-city-latlng.xlsx
+++ b/province-city-latlng.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yy/leaflet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904C5C86-640D-9E4A-BB6A-6B73C9787993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED17C2F-2814-3449-B79B-5008A784FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="0" windowWidth="24420" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="0" windowWidth="24420" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.geocoding.tech" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'www.geocoding.tech'!$A$1:$E$452</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="937">
   <si>
     <t>地址</t>
   </si>
@@ -2828,13 +2831,16 @@
   </si>
   <si>
     <t>新疆维吾尔自治区乌鲁木齐市乌鲁木齐县白杨</t>
+  </si>
+  <si>
+    <t>114.992509,27.113443</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2848,6 +2854,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2870,8 +2882,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3213,9 +3226,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:B452"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5670,9 +5689,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="18">
       <c r="A176" t="s">
         <v>356</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="E176" t="s">
         <v>357</v>
@@ -9543,10 +9565,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E452" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E452" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E175 A177:E452 A176 C176:E176" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>